--- a/src/static/downloads/csv/projects.xlsx
+++ b/src/static/downloads/csv/projects.xlsx
@@ -517,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,7 @@
     <row customFormat="1" r="4" s="3">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>Date: 24/04/2021</t>
+          <t>Date: 27/04/2021</t>
         </is>
       </c>
     </row>
@@ -631,32 +631,32 @@
     <row customFormat="1" r="9" s="3">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>eshoponweb-sonarqube</t>
+          <t>webgoat_sonarqube2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F9" s="7" t="inlineStr">
         <is>
-          <t>3867</t>
+          <t>371</t>
         </is>
       </c>
       <c r="G9" s="7" t="inlineStr">
@@ -666,29 +666,29 @@
       </c>
       <c r="H9" s="7" t="inlineStr">
         <is>
-          <t>14.9%</t>
+          <t>7.9%</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr">
         <is>
-          <t>217661 lines</t>
+          <t>7535 lines</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="10" s="3">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>vulnerable_coreweb</t>
+          <t>SAFLionPortalMoileRN</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Passed</t>
+          <t>Failed</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>310</t>
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr">
@@ -713,19 +713,19 @@
       </c>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr">
         <is>
-          <t>18 lines</t>
+          <t>19235 lines</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="11" s="3">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>SAFLionPortalMoileRN</t>
+          <t>webgoat_sonarqube3</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -735,22 +735,22 @@
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F11" s="7" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>371</t>
         </is>
       </c>
       <c r="G11" s="7" t="inlineStr">
@@ -760,673 +760,29 @@
       </c>
       <c r="H11" s="7" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>7.9%</t>
         </is>
       </c>
       <c r="I11" s="7" t="inlineStr">
         <is>
-          <t>19235 lines</t>
+          <t>7535 lines</t>
         </is>
       </c>
     </row>
-    <row customFormat="1" r="12" s="3">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>webgoat.net</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t>7250 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="13" s="3">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>webgoat.netqg</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
-        <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t>7362 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="14" s="3">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>SampleDotNet</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr">
-        <is>
-          <t>51.7%</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="inlineStr">
-        <is>
-          <t>26995 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="15" s="3">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>productionready</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
-        <is>
-          <t>364</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>29193 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="16" s="3">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>codecoverage</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="I16" s="7" t="inlineStr">
-        <is>
-          <t>157 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="17" s="3">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>sonarqube_demo</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G17" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H17" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t>21 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="3">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>eshoponweb</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H18" s="7" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t>8268 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="19" s="3">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>designpatternexplained</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>3755 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="20" s="3">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>webgoat_sonarqube</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr">
-        <is>
-          <t>363</t>
-        </is>
-      </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H20" s="7" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t>7250 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="21" s="3">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>Sample-ASP</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="inlineStr">
-        <is>
-          <t>308</t>
-        </is>
-      </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H21" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>5833 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="22" s="3">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>webgoat_sonarqube3</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F22" s="7" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-      <c r="G22" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H22" s="7" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="I22" s="7" t="inlineStr">
-        <is>
-          <t>7535 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="23" s="3">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>CodeJam</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F23" s="7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G23" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H23" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="I23" s="7" t="inlineStr">
-        <is>
-          <t>4239 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="24" s="3">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>webgoat_sonarqube2</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="inlineStr">
-        <is>
-          <t>Failed</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F24" s="7" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-      <c r="G24" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H24" s="7" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="I24" s="7" t="inlineStr">
-        <is>
-          <t>7535 lines</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" r="25" s="3">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>simpleframework_sonarqube</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>Passed</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F25" s="7" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="G25" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H25" s="7" t="inlineStr">
-        <is>
-          <t>53.5%</t>
-        </is>
-      </c>
-      <c r="I25" s="7" t="inlineStr">
-        <is>
-          <t>25240 lines</t>
-        </is>
-      </c>
-    </row>
+    <row customFormat="1" r="12" s="3"/>
+    <row customFormat="1" r="13" s="3"/>
+    <row customFormat="1" r="14" s="3"/>
+    <row customFormat="1" r="15" s="3"/>
+    <row customFormat="1" r="16" s="3"/>
+    <row customFormat="1" r="17" s="3"/>
+    <row customFormat="1" r="18" s="3"/>
+    <row customFormat="1" r="19" s="3"/>
+    <row customFormat="1" r="20" s="3"/>
+    <row customFormat="1" r="21" s="3"/>
+    <row customFormat="1" r="22" s="3"/>
+    <row customFormat="1" r="23" s="3"/>
+    <row customFormat="1" r="24" s="3"/>
+    <row customFormat="1" r="25" s="3"/>
     <row customFormat="1" r="26" s="3"/>
     <row customFormat="1" r="27" s="3"/>
     <row customFormat="1" r="28" s="3"/>

--- a/src/static/downloads/csv/projects.xlsx
+++ b/src/static/downloads/csv/projects.xlsx
@@ -631,7 +631,7 @@
     <row customFormat="1" r="9" s="3">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>webgoat_sonarqube2</t>
+          <t>SAFLionPortalMoileRN</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -641,44 +641,44 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
           <t>0.0%</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
-        <is>
-          <t>371</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
       <c r="H9" s="7" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>18.6%</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr">
         <is>
-          <t>7535 lines</t>
+          <t>19235 lines</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="10" s="3">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>SAFLionPortalMoileRN</t>
+          <t>webgoat_sonarqube2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -688,22 +688,22 @@
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="E10" s="7" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="F10" s="7" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>371</t>
         </is>
       </c>
       <c r="G10" s="7" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="H10" s="7" t="inlineStr">
         <is>
-          <t>18.6%</t>
+          <t>7.9%</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr">
         <is>
-          <t>19235 lines</t>
+          <t>7535 lines</t>
         </is>
       </c>
     </row>
